--- a/src/main/resources/SH600760.xlsx
+++ b/src/main/resources/SH600760.xlsx
@@ -1434,987 +1434,987 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20100203</t>
+          <t>20091222</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>689.0</v>
+        <v>776.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20100304</t>
+          <t>20100104</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>850.0</v>
+        <v>856.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20100316</t>
+          <t>20100108</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>762.0</v>
+        <v>787.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20100415</t>
+          <t>20100120</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>958.0</v>
+        <v>881.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20100518</t>
+          <t>20100203</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>682.0</v>
+        <v>689.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20100609</t>
+          <t>20100304</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>844.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20100702</t>
+          <t>20100316</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>643.0</v>
+        <v>762.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20100913</t>
+          <t>20100415</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1183.0</v>
+        <v>958.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20100921</t>
+          <t>20100518</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1002.0</v>
+        <v>682.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20101011</t>
+          <t>20100609</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1236.0</v>
+        <v>844.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20101018</t>
+          <t>20100702</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1061.0</v>
+        <v>643.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20101105</t>
+          <t>20100913</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1783.0</v>
+        <v>1183.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20101229</t>
+          <t>20100921</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1185.0</v>
+        <v>1002.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20110106</t>
+          <t>20101011</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1441.0</v>
+        <v>1236.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20110125</t>
+          <t>20101018</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1245.0</v>
+        <v>1061.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20110222</t>
+          <t>20101105</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1703.0</v>
+        <v>1783.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20110304</t>
+          <t>20101229</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1505.0</v>
+        <v>1185.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20110315</t>
+          <t>20110106</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1735.0</v>
+        <v>1441.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20110413</t>
+          <t>20110125</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1460.0</v>
+        <v>1245.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20110420</t>
+          <t>20110222</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1633.0</v>
+        <v>1703.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20110429</t>
+          <t>20110304</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1417.0</v>
+        <v>1505.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20110511</t>
+          <t>20110315</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1542.0</v>
+        <v>1735.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20110531</t>
+          <t>20110413</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1183.0</v>
+        <v>1460.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20110707</t>
+          <t>20110420</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1397.0</v>
+        <v>1633.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20110715</t>
+          <t>20110429</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1285.0</v>
+        <v>1417.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20110722</t>
+          <t>20110511</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1430.0</v>
+        <v>1542.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20111110</t>
+          <t>20110531</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>923.0</v>
+        <v>1183.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20111129</t>
+          <t>20110707</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1055.0</v>
+        <v>1397.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20111222</t>
+          <t>20110715</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>752.0</v>
+        <v>1285.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20120104</t>
+          <t>20110722</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>850.0</v>
+        <v>1430.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20120116</t>
+          <t>20111110</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>662.0</v>
+        <v>923.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20120319</t>
+          <t>20111129</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>957.0</v>
+        <v>1055.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20120410</t>
+          <t>20111222</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>727.0</v>
+        <v>752.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20120507</t>
+          <t>20120104</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1041.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20120521</t>
+          <t>20120116</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>885.0</v>
+        <v>662.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20120529</t>
+          <t>20120319</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>984.0</v>
+        <v>957.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20120731</t>
+          <t>20120410</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>507.0</v>
+        <v>727.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20120914</t>
+          <t>20120507</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>670.0</v>
+        <v>1041.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20120926</t>
+          <t>20120521</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>508.0</v>
+        <v>885.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20121113</t>
+          <t>20120529</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>613.0</v>
+        <v>984.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20121204</t>
+          <t>20120731</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>431.0</v>
+        <v>507.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20130116</t>
+          <t>20120914</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>699.0</v>
+        <v>670.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20130408</t>
+          <t>20120926</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>460.0</v>
+        <v>508.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20130529</t>
+          <t>20121113</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>605.0</v>
+        <v>613.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20130701</t>
+          <t>20121204</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>465.0</v>
+        <v>431.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20130923</t>
+          <t>20130116</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>574.0</v>
+        <v>699.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20131030</t>
+          <t>20130408</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>491.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20131125</t>
+          <t>20130529</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>544.0</v>
+        <v>605.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20131223</t>
+          <t>20130701</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>458.0</v>
+        <v>465.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20140102</t>
+          <t>20130923</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>500.0</v>
+        <v>574.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20140113</t>
+          <t>20131030</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>436.0</v>
+        <v>491.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20140218</t>
+          <t>20131125</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>533.0</v>
+        <v>544.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20140228</t>
+          <t>20131223</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>473.0</v>
+        <v>458.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20140320</t>
+          <t>20140102</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>724.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20140429</t>
+          <t>20140113</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>536.0</v>
+        <v>436.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20140820</t>
+          <t>20140218</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>912.0</v>
+        <v>533.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20140826</t>
+          <t>20140228</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>819.0</v>
+        <v>473.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20140926</t>
+          <t>20140320</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1379.0</v>
+        <v>724.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20141027</t>
+          <t>20140429</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1054.0</v>
+        <v>536.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20141210</t>
+          <t>20140820</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1495.0</v>
+        <v>912.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20150105</t>
+          <t>20140826</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1005.0</v>
+        <v>819.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20150122</t>
+          <t>20140926</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1220.0</v>
+        <v>1379.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20150206</t>
+          <t>20141027</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1056.0</v>
+        <v>1054.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20150625</t>
+          <t>20141210</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2836.0</v>
+        <v>1495.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20150709</t>
+          <t>20150105</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1099.0</v>
+        <v>1005.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20150727</t>
+          <t>20150122</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>2155.0</v>
+        <v>1220.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20150804</t>
+          <t>20150206</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1601.0</v>
+        <v>1056.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20150814</t>
+          <t>20150625</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>2435.0</v>
+        <v>2836.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20150916</t>
+          <t>20150709</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1008.0</v>
+        <v>1099.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20151027</t>
+          <t>20150727</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1960.0</v>
+        <v>2155.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20151103</t>
+          <t>20150804</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1560.0</v>
+        <v>1601.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20151112</t>
+          <t>20150814</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1907.0</v>
+        <v>2435.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20160203</t>
+          <t>20150916</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>883.0</v>
+        <v>1008.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20160224</t>
+          <t>20151027</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1216.0</v>
+        <v>1960.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20160301</t>
+          <t>20151103</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>889.0</v>
+        <v>1560.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20160322</t>
+          <t>20151112</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1335.0</v>
+        <v>1907.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20160520</t>
+          <t>20160203</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>755.0</v>
+        <v>883.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20160602</t>
+          <t>20160224</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>875.0</v>
+        <v>1216.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20160624</t>
+          <t>20160301</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>771.0</v>
+        <v>889.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20160711</t>
+          <t>20160322</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>945.0</v>
+        <v>1335.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20160801</t>
+          <t>20160520</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>850.0</v>
+        <v>755.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20160819</t>
+          <t>20160602</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>939.0</v>
+        <v>875.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20160825</t>
+          <t>20160624</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>900.0</v>
+        <v>771.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20170217</t>
+          <t>20160711</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>3084.0</v>
+        <v>945.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20170223</t>
+          <t>20160801</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>2597.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20170316</t>
+          <t>20160819</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>4245.0</v>
+        <v>939.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20170405</t>
+          <t>20160825</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>3262.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20170412</t>
+          <t>20170217</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>4119.0</v>
+        <v>3084.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20170524</t>
+          <t>20170223</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2560.0</v>
+        <v>2597.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20170619</t>
+          <t>20170316</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>3671.0</v>
+        <v>4245.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20170718</t>
+          <t>20170405</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>2685.0</v>
+        <v>3262.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20171023</t>
+          <t>20170412</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>3785.0</v>
+        <v>4119.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20171117</t>
+          <t>20170524</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>2861.0</v>
+        <v>2560.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20171127</t>
+          <t>20170619</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>3341.0</v>
+        <v>3671.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20171206</t>
+          <t>20170718</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2866.0</v>
+        <v>2685.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20171220</t>
+          <t>20171023</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>3518.0</v>
+        <v>3785.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20171226</t>
+          <t>20171117</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3216.0</v>
+        <v>2861.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20180110</t>
+          <t>20171127</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>3973.0</v>
+        <v>3341.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20180117</t>
+          <t>20171206</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -2424,340 +2424,380 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20180125</t>
+          <t>20171220</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>3234.0</v>
+        <v>3518.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20180209</t>
+          <t>20171226</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2236.0</v>
+        <v>3216.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20180312</t>
+          <t>20180110</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>3233.0</v>
+        <v>3973.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20180323</t>
+          <t>20180117</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>2900.0</v>
+        <v>2866.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20180419</t>
+          <t>20180125</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>4160.0</v>
+        <v>3234.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20180530</t>
+          <t>20180209</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>3218.0</v>
+        <v>2236.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20180607</t>
+          <t>20180312</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>3835.0</v>
+        <v>3233.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20180619</t>
+          <t>20180323</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>3237.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20180723</t>
+          <t>20180419</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>4145.0</v>
+        <v>4160.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20180809</t>
+          <t>20180530</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>3246.0</v>
+        <v>3218.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20180904</t>
+          <t>20180607</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>3917.0</v>
+        <v>3835.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20181228</t>
+          <t>20180619</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2671.0</v>
+        <v>3237.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20190116</t>
+          <t>20180723</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>3145.0</v>
+        <v>4145.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20190129</t>
+          <t>20180809</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2896.0</v>
+        <v>3246.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20190227</t>
+          <t>20180904</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>3452.0</v>
+        <v>3917.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20190315</t>
+          <t>20181228</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>3158.0</v>
+        <v>2671.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20190325</t>
+          <t>20190116</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>3489.0</v>
+        <v>3145.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20190508</t>
+          <t>20190129</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>2735.0</v>
+        <v>2896.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20190516</t>
+          <t>20190227</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>3124.0</v>
+        <v>3452.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20190617</t>
+          <t>20190315</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>2704.0</v>
+        <v>3158.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20190704</t>
+          <t>20190325</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>3163.0</v>
+        <v>3489.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20190815</t>
+          <t>20190508</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2778.0</v>
+        <v>2735.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20190910</t>
+          <t>20190516</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>3807.0</v>
+        <v>3124.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20191021</t>
+          <t>20190617</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>2834.0</v>
+        <v>2704.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20191106</t>
+          <t>20190704</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>3061.0</v>
+        <v>3163.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20191112</t>
+          <t>20190815</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>2736.0</v>
+        <v>2778.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20200106</t>
+          <t>20190910</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>3405.0</v>
+        <v>3807.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20200204</t>
+          <t>20191021</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>2485.0</v>
+        <v>2834.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20200312</t>
+          <t>20191106</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>3165.0</v>
+        <v>3061.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20200324</t>
+          <t>20191112</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>2609.0</v>
+        <v>2736.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20200518</t>
+          <t>20200106</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>3598.0</v>
+        <v>3405.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20200612</t>
+          <t>20200204</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>3171.0</v>
+        <v>2485.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20200810</t>
+          <t>20200312</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>7870.0</v>
+        <v>3165.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
+          <t>20200324</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>2609.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>20200518</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>3598.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>20200612</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>3171.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>20200810</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>7870.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
           <t>20200826</t>
         </is>
       </c>
-      <c r="B270" t="n">
+      <c r="B274" t="n">
         <v>5688.0</v>
       </c>
     </row>
